--- a/Dessert Dataset Analysis/dessert_dataset.xlsx
+++ b/Dessert Dataset Analysis/dessert_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\LN2PEPF0000C0E2\EXCELCNV\9bec3dfe-7212-4931-9a55-53aa7b5c51c6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{184433C9-9770-4AA7-B946-96ABD5F8142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8382C03D-01C7-41C1-B429-AC8560946E18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F053F8F8-3FC1-4DB3-8F05-497499CBEDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{CB0BC97F-1C45-48F1-BB33-AF8CD55E03E0}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3177" r:id="rId4"/>
+    <pivotCache cacheId="3628" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -171,8 +171,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -710,17 +711,17 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -771,10 +772,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -918,7 +919,7 @@
             <c:numRef>
               <c:f>in!$G$2:$G$9</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>605</c:v>
@@ -1147,7 +1148,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3052,7 +3053,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B80E5BB-D8B9-40B1-B2C8-555522506C1A}" name="PivotTable1" cacheId="3177" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B80E5BB-D8B9-40B1-B2C8-555522506C1A}" name="PivotTable1" cacheId="3628" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3489,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AD7867-3A19-4FF5-AB06-DD98AF1E1B8E}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="G2:G9 E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3553,13 +3554,13 @@
         <f t="array" ref="D2">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Baked Goods</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>5.5</v>
       </c>
       <c r="F2">
         <v>110</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>605</v>
       </c>
@@ -3588,13 +3589,13 @@
         <f t="array" ref="D3">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Baked Goods</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>5</v>
       </c>
       <c r="F3">
         <v>120</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>600</v>
       </c>
@@ -3623,13 +3624,13 @@
         <f t="array" ref="D4">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Small Bites</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>2.75</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>550</v>
       </c>
@@ -3658,13 +3659,13 @@
         <f t="array" ref="D5">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Other</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <v>3.5</v>
       </c>
       <c r="F5">
         <v>150</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>525</v>
       </c>
@@ -3693,13 +3694,13 @@
         <f t="array" ref="D6">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Baked Goods</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>4.5</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>450</v>
       </c>
@@ -3728,13 +3729,13 @@
         <f t="array" ref="D7">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Small Bites</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <v>2.5</v>
       </c>
       <c r="F7">
         <v>160</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>400</v>
       </c>
@@ -3763,13 +3764,13 @@
         <f t="array" ref="D8">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Baked Goods</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="9">
         <v>3.75</v>
       </c>
       <c r="F8">
         <v>80</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>300</v>
       </c>
@@ -3798,13 +3799,13 @@
         <f t="array" ref="D9">_xlfn.SWITCH(Table1[[#This Row],[Category]], "Cakes","Baked Goods", "PiEs","Baked Goods", "muffins","Small Bites", "BrOWnIes","Small Bites", "Pastries","Pastry", "Other")</f>
         <v>Pastry</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
         <v>2</v>
       </c>
       <c r="F9">
         <v>140</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="9">
         <f>Table1[[#This Row],[Price per Unit]]*Table1[[#This Row],[Units Sold]]</f>
         <v>280</v>
       </c>
@@ -3820,11 +3821,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="2">
         <f>COUNTIFS(Table1[Customer Rating],"&gt;4.5")</f>
         <v>4</v>
@@ -3869,31 +3870,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="4" t="str">
         <f>VLOOKUP(Vlookup!A4,Table1[[Dessert Name]:[Price per Unit]],3,FALSE)</f>
         <v>Pastry</v>
       </c>
@@ -3924,10 +3925,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -3941,7 +3942,7 @@
       <c r="B4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>400</v>
       </c>
     </row>
@@ -3949,7 +3950,7 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>400</v>
       </c>
     </row>
@@ -3960,7 +3961,7 @@
       <c r="B6">
         <v>4.5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>600</v>
       </c>
     </row>
@@ -3968,7 +3969,7 @@
       <c r="B7">
         <v>4.8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>450</v>
       </c>
     </row>
@@ -3976,7 +3977,7 @@
       <c r="B8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>605</v>
       </c>
     </row>
@@ -3984,7 +3985,7 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>551.66666666666663</v>
       </c>
     </row>
@@ -3995,7 +3996,7 @@
       <c r="B10">
         <v>4.7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>550</v>
       </c>
     </row>
@@ -4003,7 +4004,7 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>550</v>
       </c>
     </row>
@@ -4014,7 +4015,7 @@
       <c r="B12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>280</v>
       </c>
     </row>
@@ -4022,7 +4023,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>280</v>
       </c>
     </row>
@@ -4033,7 +4034,7 @@
       <c r="B14">
         <v>4.3</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>300</v>
       </c>
     </row>
@@ -4041,7 +4042,7 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>300</v>
       </c>
     </row>
@@ -4052,7 +4053,7 @@
       <c r="B16">
         <v>4.2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>525</v>
       </c>
     </row>
@@ -4060,7 +4061,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>525</v>
       </c>
     </row>
@@ -4068,7 +4069,7 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>463.75</v>
       </c>
     </row>

--- a/Dessert Dataset Analysis/dessert_dataset.xlsx
+++ b/Dessert Dataset Analysis/dessert_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\LN2PEPF0000C0E2\EXCELCNV\9bec3dfe-7212-4931-9a55-53aa7b5c51c6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F053F8F8-3FC1-4DB3-8F05-497499CBEDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9338BF5-26D8-4A0B-AA05-4C8679336B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{CB0BC97F-1C45-48F1-BB33-AF8CD55E03E0}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <t>VLOOKUP function to find the Price per Unit for a dessert when its name is entered in a separate cell</t>
   </si>
   <si>
-    <t>Average of Total Revenue</t>
+    <t>Sum of Total Revenue</t>
   </si>
   <si>
     <t>Brownies Total</t>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -722,6 +722,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -883,6 +884,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>in!$B$2:$B$9</c:f>
@@ -955,8 +1014,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1341,7 +1401,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1423,6 +1495,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1609378311"/>
         <c:axId val="935957000"/>
@@ -3149,7 +3222,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Total Revenue" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Revenue" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3490,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AD7867-3A19-4FF5-AB06-DD98AF1E1B8E}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="G2:G9 E2:E9"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3912,14 +3985,14 @@
   <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3942,7 +4015,7 @@
       <c r="B4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>400</v>
       </c>
     </row>
@@ -3950,7 +4023,7 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>400</v>
       </c>
     </row>
@@ -3961,7 +4034,7 @@
       <c r="B6">
         <v>4.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>600</v>
       </c>
     </row>
@@ -3969,7 +4042,7 @@
       <c r="B7">
         <v>4.8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>450</v>
       </c>
     </row>
@@ -3977,7 +4050,7 @@
       <c r="B8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>605</v>
       </c>
     </row>
@@ -3985,8 +4058,8 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="C9">
-        <v>551.66666666666663</v>
+      <c r="C9" s="10">
+        <v>1655</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3996,7 +4069,7 @@
       <c r="B10">
         <v>4.7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>550</v>
       </c>
     </row>
@@ -4004,7 +4077,7 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>550</v>
       </c>
     </row>
@@ -4015,7 +4088,7 @@
       <c r="B12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>280</v>
       </c>
     </row>
@@ -4023,7 +4096,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>280</v>
       </c>
     </row>
@@ -4034,7 +4107,7 @@
       <c r="B14">
         <v>4.3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>300</v>
       </c>
     </row>
@@ -4042,7 +4115,7 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>300</v>
       </c>
     </row>
@@ -4053,7 +4126,7 @@
       <c r="B16">
         <v>4.2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>525</v>
       </c>
     </row>
@@ -4061,7 +4134,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="10">
         <v>525</v>
       </c>
     </row>
@@ -4069,8 +4142,8 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="C18">
-        <v>463.75</v>
+      <c r="C18" s="10">
+        <v>3710</v>
       </c>
     </row>
   </sheetData>
